--- a/05-mayo/1_DEBARRENECHEA/DEBA.xlsx
+++ b/05-mayo/1_DEBARRENECHEA/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\1_DEBARRENECHEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\1_DEBARRENECHEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F5703-87A5-4540-B1CB-27F37B6F1095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E4F0DD-AE37-4FCF-8BF1-204EAA0AEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27405" yWindow="960" windowWidth="25665" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>BONO</t>
   </si>
   <si>
-    <t>ABRIL 2025</t>
+    <t>MAYO 2025</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
       <c r="H4" s="1"/>
       <c r="K4" s="15">
         <f>+K6+20000</f>
-        <v>549620.69999999995</v>
+        <v>639514.16999999993</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
@@ -580,15 +580,15 @@
         <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>450527.01</v>
+        <v>548168.57999999996</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="11">
         <f>+C6+D6</f>
-        <v>450527.01</v>
+        <v>548168.57999999996</v>
       </c>
       <c r="F6" s="6">
-        <v>79093.69</v>
+        <v>71345.59</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -601,23 +601,23 @@
       </c>
       <c r="J6" s="11">
         <f>+F6+G6+H6+I6</f>
-        <v>79093.69</v>
+        <v>71345.59</v>
       </c>
       <c r="K6" s="6">
         <f>+E6+J6</f>
-        <v>529620.69999999995</v>
+        <v>619514.16999999993</v>
       </c>
       <c r="L6" s="6">
         <f>+K6*2</f>
-        <v>1059241.3999999999</v>
+        <v>1239028.3399999999</v>
       </c>
       <c r="M6" s="6">
         <f>+E6+F6+G6+H6</f>
-        <v>529620.69999999995</v>
+        <v>619514.16999999993</v>
       </c>
       <c r="N6" s="9">
         <f>+M6*2</f>
-        <v>1059241.3999999999</v>
+        <v>1239028.3399999999</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -628,15 +628,15 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>520377.5</v>
+        <v>554297.18000000005</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="11">
         <f>+C7+D7</f>
-        <v>520377.5</v>
+        <v>554297.18000000005</v>
       </c>
       <c r="F7" s="6">
-        <v>85684.57</v>
+        <v>72153.279999999999</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -649,23 +649,23 @@
       </c>
       <c r="J7" s="11">
         <f>+F7+G7+H7+I7</f>
-        <v>85684.57</v>
+        <v>72153.279999999999</v>
       </c>
       <c r="K7" s="6">
         <f>+E7+J7</f>
-        <v>606062.07000000007</v>
+        <v>626450.46000000008</v>
       </c>
       <c r="L7" s="6">
         <f>+K7*2</f>
-        <v>1212124.1400000001</v>
+        <v>1252900.9200000002</v>
       </c>
       <c r="M7" s="6">
         <f>+E7+F7+G7+H7</f>
-        <v>606062.07000000007</v>
+        <v>626450.46000000008</v>
       </c>
       <c r="N7" s="9">
         <f>+M7*2</f>
-        <v>1212124.1400000001</v>
+        <v>1252900.9200000002</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -695,7 +695,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="8">
         <f>SUM(C6:C8)</f>
-        <v>970904.51</v>
+        <v>1102465.76</v>
       </c>
       <c r="D9" s="8">
         <f>SUM(D6:D8)</f>
@@ -703,11 +703,11 @@
       </c>
       <c r="E9" s="11">
         <f>+C9+D9</f>
-        <v>970904.51</v>
+        <v>1102465.76</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:K9" si="0">SUM(F6:F8)</f>
-        <v>164778.26</v>
+        <v>143498.87</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -717,23 +717,23 @@
       </c>
       <c r="J9" s="12">
         <f>SUM(J6:J8)</f>
-        <v>164778.26</v>
+        <v>143498.87</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>1135682.77</v>
+        <v>1245964.6299999999</v>
       </c>
       <c r="L9" s="8">
         <f>SUM(L6:L8)</f>
-        <v>2271365.54</v>
+        <v>2491929.2599999998</v>
       </c>
       <c r="M9" s="8">
         <f>SUM(M6:M8)</f>
-        <v>1135682.77</v>
+        <v>1245964.6299999999</v>
       </c>
       <c r="N9" s="8">
         <f>SUM(N6:N8)</f>
-        <v>2271365.54</v>
+        <v>2491929.2599999998</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14">
-        <v>1201056.26</v>
+        <v>1242877.52</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
